--- a/기획서/대사집(편집).xlsx
+++ b/기획서/대사집(편집).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="144">
   <si>
     <t>location</t>
   </si>
@@ -41,51 +41,51 @@
     <t>(여느 때와 같이 모두가 지쳐보이는 월요일 교실이다.)</t>
   </si>
   <si>
+    <t>푸교수</t>
+  </si>
+  <si>
+    <t>푸, 푸르르르 푸푸린~ 푸우우우~</t>
+  </si>
+  <si>
+    <t>나</t>
+  </si>
+  <si>
+    <t>교수님, 안녕하세요!</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>안녕하세요. 무슨 일인가요?</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>교수님, 수업이 너무 졸려요!</t>
+  </si>
+  <si>
+    <t>왜 푸린인데 안경을 쓰고 계신거죠?</t>
+  </si>
+  <si>
+    <t>교수님 랩실에 티요가 있을까요?</t>
+  </si>
+  <si>
+    <t>...학생 이름이 뭐였죠.</t>
+  </si>
+  <si>
+    <t>(정신을 차려보니 기숙사였다. 무슨 일이 일어났던 거지?!)</t>
+  </si>
+  <si>
+    <t>물론이죠! 조만간 대학원 설명회가 있을 겁니다.</t>
+  </si>
+  <si>
+    <t>(오늘도 또 조교님이 대신 오신 것 같다.)</t>
+  </si>
+  <si>
     <t>다음 일</t>
   </si>
   <si>
-    <t>푸교수</t>
-  </si>
-  <si>
-    <t>푸, 푸르르르 푸푸린~ 푸우우우~</t>
-  </si>
-  <si>
-    <t>나</t>
-  </si>
-  <si>
-    <t>교수님, 안녕하세요!</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>안녕하세요. 무슨 일인가요?</t>
-  </si>
-  <si>
-    <t>Answer</t>
-  </si>
-  <si>
-    <t>교수님, 수업이 너무 졸려요!</t>
-  </si>
-  <si>
-    <t>왜 푸린인데 안경을 쓰고 계신거죠?</t>
-  </si>
-  <si>
-    <t>교수님 랩실에 티요가 있을까요?</t>
-  </si>
-  <si>
-    <t>...학생 이름이 뭐였죠.</t>
-  </si>
-  <si>
-    <t>(정신을 차려보니 기숙사였다. 무슨 일이 일어났던 거지?!)</t>
-  </si>
-  <si>
-    <t>물론이죠! 조만간 대학원 설명회가 있을 겁니다.</t>
-  </si>
-  <si>
-    <t>(오늘도 또 조교님이 대신 오신 것 같다.)</t>
-  </si>
-  <si>
     <t>이조교</t>
   </si>
   <si>
@@ -107,12 +107,21 @@
     <t>그런 거 없습니다.</t>
   </si>
   <si>
+    <t>의심도 증가</t>
+  </si>
+  <si>
     <t>...교수님이 출장 가신 걸 제가 어떻게 하죠?</t>
   </si>
   <si>
+    <t>턴 종료.</t>
+  </si>
+  <si>
     <t>그럴까요?</t>
   </si>
   <si>
+    <t>교수님의 마음 획득</t>
+  </si>
+  <si>
     <t>(분명 집중해서 들었는데 무슨 소리인지 1도 모르겠다.)</t>
   </si>
   <si>
@@ -200,6 +209,9 @@
     <t>알았습니다. 조교님한테 가볼게요.</t>
   </si>
   <si>
+    <t>김영란법으로 잡혀간다.</t>
+  </si>
+  <si>
     <t>네, 안녕히 계세요.</t>
   </si>
   <si>
@@ -227,9 +239,15 @@
     <t>무슨 일이야?</t>
   </si>
   <si>
+    <t>경찰 엔딩.</t>
+  </si>
+  <si>
     <t>뭘 보십니까?</t>
   </si>
   <si>
+    <t xml:space="preserve">김후배 선택시 </t>
+  </si>
+  <si>
     <t>선배님, 저에게 유기화학 레포트 좀 주실 수 없으십니까?</t>
   </si>
   <si>
@@ -239,9 +257,15 @@
     <t>이번주 주말에 너랑 여행갔다온 걸로 해준다면 줄 수도 있는데.</t>
   </si>
   <si>
+    <t>예라고 대답한 경우</t>
+  </si>
+  <si>
     <t>그러게 왜 어제 밤새서 게임했어.</t>
   </si>
   <si>
+    <t>대화 종료</t>
+  </si>
+  <si>
     <t>…뭐, 선배정도면 믿을 수 있으니까요.</t>
   </si>
   <si>
@@ -251,9 +275,15 @@
     <t>헐... 게임은 제 인생의 전부인데요.</t>
   </si>
   <si>
+    <t>성서를 얻을 수 있다.</t>
+  </si>
+  <si>
     <t>(오늘도 역시 과제에 깔려 죽어가고 있다.)</t>
   </si>
   <si>
+    <t>알리바이 생성</t>
+  </si>
+  <si>
     <t>A씨</t>
   </si>
   <si>
@@ -269,9 +299,15 @@
     <t>잘있어라.</t>
   </si>
   <si>
+    <t>알리바이 생성.</t>
+  </si>
+  <si>
     <t>나쁜 자식...</t>
   </si>
   <si>
+    <t>구겨진 0점 시험지 획득 가능.</t>
+  </si>
+  <si>
     <t>뭐든 해줄게…</t>
   </si>
   <si>
@@ -284,18 +320,33 @@
     <t>밤늦게까지 힘들겠구만, 학생도.</t>
   </si>
   <si>
+    <t>의심도 증가 (폭탄없이 복도에서 걸렸을 시)</t>
+  </si>
+  <si>
     <t>이런 저녁까지 학교에 남아있나? 도대체 무슨 일로?</t>
   </si>
   <si>
+    <t>의심도 증가 (폭탄없이 서버실가는 길에서 걸렸을 시)</t>
+  </si>
+  <si>
     <t>이건 곰인형 아닌가…? 학생, 몽유병이라도 있나?</t>
   </si>
   <si>
+    <t>위장용 곰인형 사용했을 시</t>
+  </si>
+  <si>
     <t>이건 폭탄 아닌가...? 학생 이건 압수하겠네!!</t>
   </si>
   <si>
+    <t>의심도 증가 (폭탄들고 복도에서 걸렸을 시)</t>
+  </si>
+  <si>
     <t>이건 폭탄 아닌가…? 학생 지금 이거 들고 어디로… 설마!</t>
   </si>
   <si>
+    <t>경찰엔딩 (폭탄들고 서버실가는 길에서 걸렸을 시)</t>
+  </si>
+  <si>
     <t>학생1</t>
   </si>
   <si>
@@ -314,6 +365,9 @@
     <t>왜 너도 시도해보게? 아 그럼 이거. 저번에 남은건데 나름 유용하다고?</t>
   </si>
   <si>
+    <t>글리세린 획득. (몇번정도 대화 후가 좋을 것 같아요)</t>
+  </si>
+  <si>
     <t>학생2</t>
   </si>
   <si>
@@ -332,6 +386,9 @@
     <t>이렇게 나를 괴롭히다니 자네도 그걸 원하는군.</t>
   </si>
   <si>
+    <t>10번 클릭시 발생.</t>
+  </si>
+  <si>
     <t>이게 소싯적 유명했던 폭탄이라네. 조심히 쓰게나.</t>
   </si>
   <si>
@@ -353,16 +410,16 @@
     <t>자 여기, 레포트.</t>
   </si>
   <si>
-    <t>이 과목은 얼마 안 돼.</t>
-  </si>
-  <si>
     <t>아, 이건 좀 팔리더라. 이 정도면 되지?</t>
   </si>
   <si>
-    <t>와 이건 진짜 구하기 힘든 건데! 더 얹어서 줄게.</t>
-  </si>
-  <si>
     <t>그러고보니 너 요즘 폭탄재료 모으고 다닌다며? 어때, 이것도 써볼래? (____\)</t>
+  </si>
+  <si>
+    <t>(미정) 일정 레포트이상 판매시 우라늄 구매가능</t>
+  </si>
+  <si>
+    <t>금액은 아직 미정</t>
   </si>
   <si>
     <t>자판기</t>
@@ -388,67 +445,13 @@
     </r>
   </si>
   <si>
-    <t>의심도 증가</t>
-  </si>
-  <si>
-    <t>턴 종료.</t>
-  </si>
-  <si>
-    <t>교수님의 마음 획득</t>
-  </si>
-  <si>
-    <t>김영란법으로 잡혀간다.</t>
-  </si>
-  <si>
-    <t>경찰 엔딩.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">김후배 선택시 </t>
-  </si>
-  <si>
-    <t>예라고 대답한 경우</t>
-  </si>
-  <si>
-    <t>대화 종료</t>
-  </si>
-  <si>
-    <t>성서를 얻을 수 있다.</t>
-  </si>
-  <si>
-    <t>알리바이 생성</t>
-  </si>
-  <si>
-    <t>알리바이 생성.</t>
-  </si>
-  <si>
-    <t>구겨진 0점 시험지 획득 가능.</t>
-  </si>
-  <si>
-    <t>의심도 증가 (폭탄없이 복도에서 걸렸을 시)</t>
-  </si>
-  <si>
-    <t>의심도 증가 (폭탄없이 서버실가는 길에서 걸렸을 시)</t>
-  </si>
-  <si>
-    <t>위장용 곰인형 사용했을 시</t>
-  </si>
-  <si>
-    <t>의심도 증가 (폭탄들고 복도에서 걸렸을 시)</t>
-  </si>
-  <si>
-    <t>경찰엔딩 (폭탄들고 서버실가는 길에서 걸렸을 시)</t>
-  </si>
-  <si>
-    <t>글리세린 획득. (몇번정도 대화 후가 좋을 것 같아요)</t>
-  </si>
-  <si>
-    <t>10번 클릭시 발생.</t>
-  </si>
-  <si>
-    <t>(미정) 일정 레포트이상 판매시 우라늄 구매가능</t>
-  </si>
-  <si>
-    <t>금액은 아직 미정</t>
+    <t>데자와 획득</t>
+  </si>
+  <si>
+    <t>이 과목은 얼마 안 돼.</t>
+  </si>
+  <si>
+    <t>와 이건 진짜 구하기 힘든 건데! 더 얹어서 줄게.</t>
   </si>
   <si>
     <r>
@@ -463,9 +466,6 @@
       </rPr>
       <t>nswer</t>
     </r>
-  </si>
-  <si>
-    <t>데자와 획득</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -659,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -671,7 +671,7 @@
         <v>1.0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -695,7 +695,7 @@
         <v>1.0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -707,19 +707,19 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -732,19 +732,19 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -756,7 +756,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
         <v>1.0</v>
@@ -765,10 +765,10 @@
         <v>1.0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -780,7 +780,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>1.0</v>
@@ -789,10 +789,10 @@
         <v>1.0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -803,7 +803,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
@@ -815,7 +815,7 @@
         <v>1.0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -827,7 +827,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
@@ -839,7 +839,7 @@
         <v>1.0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -851,7 +851,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>7</v>
@@ -863,7 +863,7 @@
         <v>1.0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -885,7 +885,7 @@
         <v>1.0</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -921,10 +921,10 @@
         <v>1.0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1">
         <v>2.0</v>
@@ -946,7 +946,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1">
         <v>2.0</v>
@@ -968,7 +968,7 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1">
         <v>2.0</v>
@@ -980,7 +980,7 @@
         <v>28</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -992,7 +992,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1">
         <v>2.0</v>
@@ -1049,7 +1049,7 @@
         <v>1.0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -1073,7 +1073,7 @@
         <v>1.0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -1095,7 +1095,7 @@
         <v>1.0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -1107,7 +1107,7 @@
         <v>2.0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>7</v>
@@ -1119,7 +1119,7 @@
         <v>1.0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -1131,7 +1131,7 @@
         <v>2.0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>7</v>
@@ -1143,7 +1143,7 @@
         <v>1.0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -1155,10 +1155,10 @@
         <v>2.0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="1">
         <v>3.0</v>
@@ -1167,7 +1167,7 @@
         <v>1.0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="1">
         <v>3.0</v>
@@ -1189,10 +1189,10 @@
         <v>1.0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="15.0" customHeight="1">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="1">
         <v>3.0</v>
@@ -1213,10 +1213,10 @@
         <v>1.0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="15.0" customHeight="1">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1">
         <v>3.0</v>
@@ -1237,10 +1237,10 @@
         <v>1.0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="15.0" customHeight="1">
@@ -1251,7 +1251,7 @@
         <v>2.0</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>7</v>
@@ -1263,7 +1263,7 @@
         <v>1.0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H28" s="3"/>
     </row>
@@ -1275,7 +1275,7 @@
         <v>2.0</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>7</v>
@@ -1287,7 +1287,7 @@
         <v>1.0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H29" s="3"/>
     </row>
@@ -1299,7 +1299,7 @@
         <v>2.0</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>7</v>
@@ -1311,7 +1311,7 @@
         <v>1.0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H30" s="3"/>
     </row>
@@ -1333,7 +1333,7 @@
         <v>1.0</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H31" s="3"/>
     </row>
@@ -1345,7 +1345,7 @@
         <v>3.0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>7</v>
@@ -1357,7 +1357,7 @@
         <v>1.0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H32" s="3"/>
     </row>
@@ -1369,7 +1369,7 @@
         <v>3.0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>7</v>
@@ -1381,7 +1381,7 @@
         <v>1.0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H33" s="3"/>
     </row>
@@ -1393,10 +1393,10 @@
         <v>3.0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="1">
         <v>4.0</v>
@@ -1405,7 +1405,7 @@
         <v>1.0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H34" s="3"/>
     </row>
@@ -1417,10 +1417,10 @@
         <v>3.0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35" s="1">
         <v>4.0</v>
@@ -1429,10 +1429,10 @@
         <v>1.0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" ht="15.0" customHeight="1">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1">
         <v>4.0</v>
@@ -1453,10 +1453,10 @@
         <v>1.0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" ht="15.0" customHeight="1">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" s="1">
         <v>4.0</v>
@@ -1477,7 +1477,7 @@
         <v>1.0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H37" s="3"/>
     </row>
@@ -1489,7 +1489,7 @@
         <v>3.0</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>7</v>
@@ -1501,7 +1501,7 @@
         <v>1.0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -1513,7 +1513,7 @@
         <v>3.0</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>7</v>
@@ -1525,7 +1525,7 @@
         <v>1.0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -1537,7 +1537,7 @@
         <v>3.0</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>7</v>
@@ -1549,7 +1549,7 @@
         <v>1.0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H40" s="3"/>
     </row>
@@ -1571,7 +1571,7 @@
         <v>1.0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H41" s="3"/>
     </row>
@@ -1583,7 +1583,7 @@
         <v>4.0</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>7</v>
@@ -1595,7 +1595,7 @@
         <v>1.0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H42" s="3"/>
     </row>
@@ -1607,7 +1607,7 @@
         <v>4.0</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>7</v>
@@ -1619,7 +1619,7 @@
         <v>1.0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H43" s="3"/>
     </row>
@@ -1631,10 +1631,10 @@
         <v>4.0</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" s="1">
         <v>5.0</v>
@@ -1643,7 +1643,7 @@
         <v>1.0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H44" s="3"/>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45" s="1">
         <v>5.0</v>
@@ -1665,10 +1665,10 @@
         <v>1.0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" ht="15.0" customHeight="1">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" s="1">
         <v>5.0</v>
@@ -1689,10 +1689,10 @@
         <v>1.0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47" s="1">
         <v>5.0</v>
@@ -1713,7 +1713,7 @@
         <v>1.0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H47" s="3"/>
     </row>
@@ -1735,7 +1735,7 @@
         <v>1.0</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H48" s="3"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>1.0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" ht="15.0" customHeight="1">
@@ -1771,7 +1771,7 @@
         <v>1.0</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>7</v>
@@ -1783,7 +1783,7 @@
         <v>1.0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H50" s="3"/>
     </row>
@@ -1795,10 +1795,10 @@
         <v>1.0</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51" s="1">
         <v>0.0</v>
@@ -1807,7 +1807,7 @@
         <v>1.0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H51" s="3"/>
     </row>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52" s="1">
         <v>0.0</v>
@@ -1829,7 +1829,7 @@
         <v>1.0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H52" s="3"/>
     </row>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53" s="1">
         <v>0.0</v>
@@ -1851,7 +1851,7 @@
         <v>1.0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H53" s="3"/>
     </row>
@@ -1863,7 +1863,7 @@
         <v>1.0</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>7</v>
@@ -1875,10 +1875,10 @@
         <v>1.0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" ht="15.0" customHeight="1">
@@ -1889,7 +1889,7 @@
         <v>1.0</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>7</v>
@@ -1901,10 +1901,10 @@
         <v>1.0</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" ht="15.0" customHeight="1">
@@ -1915,10 +1915,10 @@
         <v>1.0</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56" s="1">
         <v>0.0</v>
@@ -1927,7 +1927,7 @@
         <v>1.0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H56" s="3"/>
     </row>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57" s="1">
         <v>0.0</v>
@@ -1949,10 +1949,10 @@
         <v>1.0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" ht="15.0" customHeight="1">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58" s="1">
         <v>0.0</v>
@@ -1973,10 +1973,10 @@
         <v>1.0</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" ht="15.0" customHeight="1">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59" s="1">
         <v>0.0</v>
@@ -1997,7 +1997,7 @@
         <v>1.0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H59" s="3"/>
     </row>
@@ -2009,7 +2009,7 @@
         <v>1.0</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>7</v>
@@ -2021,7 +2021,7 @@
         <v>1.0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H60" s="3"/>
     </row>
@@ -2033,7 +2033,7 @@
         <v>1.0</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>7</v>
@@ -2045,7 +2045,7 @@
         <v>1.0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H61" s="3"/>
     </row>
@@ -2057,7 +2057,7 @@
         <v>1.0</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>7</v>
@@ -2069,7 +2069,7 @@
         <v>1.0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H62" s="3"/>
     </row>
@@ -2091,7 +2091,7 @@
         <v>2.0</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H63" s="3"/>
     </row>
@@ -2103,10 +2103,10 @@
         <v>2.0</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E64" s="1">
         <v>0.0</v>
@@ -2115,7 +2115,7 @@
         <v>2.0</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H64" s="3"/>
     </row>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E65" s="1">
         <v>0.0</v>
@@ -2137,7 +2137,7 @@
         <v>2.0</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H65" s="3"/>
     </row>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E66" s="1">
         <v>0.0</v>
@@ -2159,10 +2159,10 @@
         <v>2.0</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" ht="15.0" customHeight="1">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67" s="1">
         <v>0.0</v>
@@ -2183,10 +2183,10 @@
         <v>2.0</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" ht="15.0" customHeight="1">
@@ -2197,7 +2197,7 @@
         <v>2.0</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>7</v>
@@ -2209,7 +2209,7 @@
         <v>1.0</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H68" s="3"/>
     </row>
@@ -2221,7 +2221,7 @@
         <v>2.0</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>7</v>
@@ -2233,7 +2233,7 @@
         <v>1.0</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H69" s="3"/>
     </row>
@@ -2245,7 +2245,7 @@
         <v>2.0</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>7</v>
@@ -2257,7 +2257,7 @@
         <v>1.0</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="H70" s="3"/>
     </row>
@@ -2269,7 +2269,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>7</v>
@@ -2281,10 +2281,10 @@
         <v>3.0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" ht="15.0" customHeight="1">
@@ -2295,7 +2295,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>7</v>
@@ -2307,10 +2307,10 @@
         <v>3.0</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" ht="15.0" customHeight="1">
@@ -2321,7 +2321,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>7</v>
@@ -2333,10 +2333,10 @@
         <v>3.0</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" ht="15.0" customHeight="1">
@@ -2347,7 +2347,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>7</v>
@@ -2359,10 +2359,10 @@
         <v>3.0</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -2373,7 +2373,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>7</v>
@@ -2385,10 +2385,10 @@
         <v>3.0</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" ht="15.0" customHeight="1">
@@ -2399,10 +2399,10 @@
         <v>1.0</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E76" s="1">
         <v>0.0</v>
@@ -2411,7 +2411,7 @@
         <v>1.0</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="H76" s="3"/>
     </row>
@@ -2423,10 +2423,10 @@
         <v>1.0</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E77" s="1">
         <v>0.0</v>
@@ -2435,7 +2435,7 @@
         <v>1.0</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="H77" s="3"/>
     </row>
@@ -2447,10 +2447,10 @@
         <v>1.0</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E78" s="8">
         <v>0.0</v>
@@ -2459,7 +2459,7 @@
         <v>1.0</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="H78" s="3"/>
     </row>
@@ -2471,10 +2471,10 @@
         <v>1.0</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E79" s="12">
         <v>0.0</v>
@@ -2483,10 +2483,10 @@
         <v>1.0</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" ht="15.0" customHeight="1">
@@ -2497,10 +2497,10 @@
         <v>2.0</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E80" s="1">
         <v>0.0</v>
@@ -2509,7 +2509,7 @@
         <v>1.0</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="H80" s="3"/>
     </row>
@@ -2521,10 +2521,10 @@
         <v>2.0</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E81" s="1">
         <v>0.0</v>
@@ -2533,7 +2533,7 @@
         <v>1.0</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="H81" s="3"/>
     </row>
@@ -2545,10 +2545,10 @@
         <v>2.0</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E82" s="1">
         <v>0.0</v>
@@ -2557,7 +2557,7 @@
         <v>1.0</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="H82" s="3"/>
     </row>
@@ -2569,7 +2569,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>7</v>
@@ -2581,10 +2581,10 @@
         <v>1.0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" ht="15.0" customHeight="1">
@@ -2595,7 +2595,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>7</v>
@@ -2607,7 +2607,7 @@
         <v>1.0</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="H84" s="3"/>
     </row>
@@ -2629,7 +2629,7 @@
         <v>1.0</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="H85" s="3"/>
     </row>
@@ -2641,10 +2641,10 @@
         <v>0.0</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E86" s="1">
         <v>0.0</v>
@@ -2653,7 +2653,7 @@
         <v>1.0</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="H86" s="3"/>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E87" s="1">
         <v>0.0</v>
@@ -2675,7 +2675,7 @@
         <v>1.0</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="H87" s="3"/>
     </row>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E88" s="1">
         <v>0.0</v>
@@ -2697,7 +2697,7 @@
         <v>1.0</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="H88" s="3"/>
     </row>
@@ -2709,7 +2709,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>7</v>
@@ -2721,7 +2721,7 @@
         <v>1.0</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="H89" s="3"/>
     </row>
@@ -2733,10 +2733,10 @@
         <v>0.0</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>95</v>
+        <v>127</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="E90" s="1">
         <v>0.0</v>
@@ -2745,118 +2745,118 @@
         <v>1.0</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="H90" s="3"/>
     </row>
     <row r="91" ht="15.0" customHeight="1">
-      <c r="A91" s="1">
+      <c r="A91" s="12">
         <v>4.0</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="12">
         <v>0.0</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E91" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F91" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H91" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F91" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="92" ht="15.0" customHeight="1">
-      <c r="A92" s="1">
+      <c r="A92" s="12">
         <v>4.0</v>
       </c>
-      <c r="B92" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E92" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F92" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H92" s="3"/>
-    </row>
-    <row r="93" ht="15.0" customHeight="1">
+      <c r="B92" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F92" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="12">
         <v>4.0</v>
       </c>
       <c r="B93" s="12">
         <v>0.0</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" s="8">
+      <c r="C93" s="3"/>
+      <c r="D93" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="12">
         <v>0.0</v>
       </c>
       <c r="F93" s="12">
         <v>1.0</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H93" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="94" ht="15.0" customHeight="1">
+        <v>73</v>
+      </c>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="12">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B94" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E94" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="12">
         <v>0.0</v>
       </c>
       <c r="F94" s="12">
         <v>1.0</v>
       </c>
-      <c r="G94" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H94" s="13" t="s">
-        <v>141</v>
-      </c>
+      <c r="G94" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H94" s="3"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="12">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B95" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="C95" s="3"/>
+        <v>3.0</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="D95" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E95" s="12">
         <v>0.0</v>
@@ -2865,7 +2865,7 @@
         <v>1.0</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="H95" s="3"/>
     </row>
@@ -2876,11 +2876,9 @@
       <c r="B96" s="12">
         <v>3.0</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>7</v>
+      <c r="C96" s="3"/>
+      <c r="D96" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="E96" s="12">
         <v>0.0</v>
@@ -2888,10 +2886,12 @@
       <c r="F96" s="12">
         <v>1.0</v>
       </c>
-      <c r="G96" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="H96" s="3"/>
+      <c r="G96" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="12">
@@ -2900,11 +2900,9 @@
       <c r="B97" s="12">
         <v>3.0</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>14</v>
+      <c r="C97" s="3"/>
+      <c r="D97" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="E97" s="12">
         <v>0.0</v>
@@ -2913,54 +2911,18 @@
         <v>1.0</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="H97" s="3"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="12">
-        <v>7.0</v>
-      </c>
-      <c r="B98" s="12">
-        <v>3.0</v>
-      </c>
       <c r="C98" s="3"/>
-      <c r="D98" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="E98" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F98" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H98" s="13" t="s">
-        <v>143</v>
-      </c>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="12">
-        <v>7.0</v>
-      </c>
-      <c r="B99" s="12">
-        <v>3.0</v>
-      </c>
       <c r="C99" s="3"/>
-      <c r="D99" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E99" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F99" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="G99" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="G99" s="3"/>
       <c r="H99" s="3"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
@@ -7462,16 +7424,6 @@
       <c r="C999" s="3"/>
       <c r="G999" s="3"/>
       <c r="H999" s="3"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="C1000" s="3"/>
-      <c r="G1000" s="3"/>
-      <c r="H1000" s="3"/>
-    </row>
-    <row r="1001" ht="15.75" customHeight="1">
-      <c r="C1001" s="3"/>
-      <c r="G1001" s="3"/>
-      <c r="H1001" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -7545,7 +7497,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -7557,7 +7509,7 @@
         <v>1.0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -7569,7 +7521,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -7581,7 +7533,7 @@
         <v>1.0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -7593,19 +7545,19 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -7618,16 +7570,16 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -7640,7 +7592,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
         <v>1.0</v>
@@ -7649,7 +7601,7 @@
         <v>1.0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -7662,7 +7614,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>1.0</v>
@@ -7671,7 +7623,7 @@
         <v>1.0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -7683,7 +7635,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
@@ -7695,7 +7647,7 @@
         <v>1.0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -7707,7 +7659,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
@@ -7719,7 +7671,7 @@
         <v>1.0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -7731,7 +7683,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>7</v>
@@ -7743,7 +7695,7 @@
         <v>1.0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -7765,7 +7717,7 @@
         <v>1.0</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -7801,10 +7753,10 @@
         <v>1.0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1">
         <v>2.0</v>
@@ -7826,7 +7778,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1">
         <v>2.0</v>
@@ -7848,7 +7800,7 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1">
         <v>2.0</v>
@@ -7870,7 +7822,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1">
         <v>2.0</v>
@@ -7927,7 +7879,7 @@
         <v>1.0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -7951,7 +7903,7 @@
         <v>1.0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -7973,7 +7925,7 @@
         <v>1.0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -7985,7 +7937,7 @@
         <v>2.0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>7</v>
@@ -7997,7 +7949,7 @@
         <v>1.0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -8009,7 +7961,7 @@
         <v>2.0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>7</v>
@@ -8021,7 +7973,7 @@
         <v>1.0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -8033,10 +7985,10 @@
         <v>2.0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="1">
         <v>3.0</v>
@@ -8045,7 +7997,7 @@
         <v>1.0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -8058,7 +8010,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="1">
         <v>3.0</v>
@@ -8067,7 +8019,7 @@
         <v>1.0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -8080,7 +8032,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="1">
         <v>3.0</v>
@@ -8089,7 +8041,7 @@
         <v>1.0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -8102,7 +8054,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1">
         <v>3.0</v>
@@ -8111,7 +8063,7 @@
         <v>1.0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -8123,7 +8075,7 @@
         <v>2.0</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>7</v>
@@ -8135,7 +8087,7 @@
         <v>1.0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H28" s="3"/>
     </row>
@@ -8147,7 +8099,7 @@
         <v>2.0</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>7</v>
@@ -8159,7 +8111,7 @@
         <v>1.0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H29" s="3"/>
     </row>
@@ -8171,7 +8123,7 @@
         <v>2.0</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>7</v>
@@ -8183,7 +8135,7 @@
         <v>1.0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H30" s="3"/>
     </row>
@@ -8205,7 +8157,7 @@
         <v>1.0</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H31" s="3"/>
     </row>
@@ -8217,7 +8169,7 @@
         <v>3.0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>7</v>
@@ -8229,7 +8181,7 @@
         <v>1.0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H32" s="3"/>
     </row>
@@ -8241,7 +8193,7 @@
         <v>3.0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>7</v>
@@ -8253,7 +8205,7 @@
         <v>1.0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H33" s="3"/>
     </row>
@@ -8265,10 +8217,10 @@
         <v>3.0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="1">
         <v>4.0</v>
@@ -8277,7 +8229,7 @@
         <v>1.0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H34" s="3"/>
     </row>
@@ -8289,10 +8241,10 @@
         <v>3.0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35" s="1">
         <v>4.0</v>
@@ -8301,7 +8253,7 @@
         <v>1.0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -8314,7 +8266,7 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1">
         <v>4.0</v>
@@ -8323,7 +8275,7 @@
         <v>1.0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -8336,7 +8288,7 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" s="1">
         <v>4.0</v>
@@ -8345,7 +8297,7 @@
         <v>1.0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H37" s="3"/>
     </row>
@@ -8357,7 +8309,7 @@
         <v>3.0</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>7</v>
@@ -8369,7 +8321,7 @@
         <v>1.0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -8381,7 +8333,7 @@
         <v>3.0</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>7</v>
@@ -8393,7 +8345,7 @@
         <v>1.0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -8405,7 +8357,7 @@
         <v>3.0</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>7</v>
@@ -8417,7 +8369,7 @@
         <v>1.0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H40" s="3"/>
     </row>
@@ -8439,7 +8391,7 @@
         <v>1.0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H41" s="3"/>
     </row>
@@ -8451,7 +8403,7 @@
         <v>4.0</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>7</v>
@@ -8463,7 +8415,7 @@
         <v>1.0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H42" s="3"/>
     </row>
@@ -8475,7 +8427,7 @@
         <v>4.0</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>7</v>
@@ -8487,7 +8439,7 @@
         <v>1.0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H43" s="3"/>
     </row>
@@ -8499,10 +8451,10 @@
         <v>4.0</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" s="1">
         <v>5.0</v>
@@ -8511,7 +8463,7 @@
         <v>1.0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H44" s="3"/>
     </row>
@@ -8524,7 +8476,7 @@
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45" s="1">
         <v>5.0</v>
@@ -8533,7 +8485,7 @@
         <v>1.0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -8546,7 +8498,7 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" s="1">
         <v>5.0</v>
@@ -8555,7 +8507,7 @@
         <v>1.0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -8568,7 +8520,7 @@
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47" s="1">
         <v>5.0</v>
@@ -8577,7 +8529,7 @@
         <v>1.0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H47" s="3"/>
     </row>
@@ -8599,7 +8551,7 @@
         <v>1.0</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H48" s="3"/>
     </row>
@@ -8621,7 +8573,7 @@
         <v>1.0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -8633,7 +8585,7 @@
         <v>1.0</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>7</v>
@@ -8645,7 +8597,7 @@
         <v>1.0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H50" s="3"/>
     </row>
@@ -8657,10 +8609,10 @@
         <v>1.0</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51" s="1">
         <v>0.0</v>
@@ -8669,7 +8621,7 @@
         <v>1.0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H51" s="3"/>
     </row>
@@ -8682,7 +8634,7 @@
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52" s="1">
         <v>0.0</v>
@@ -8691,7 +8643,7 @@
         <v>1.0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H52" s="3"/>
     </row>
@@ -8704,7 +8656,7 @@
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53" s="1">
         <v>0.0</v>
@@ -8713,7 +8665,7 @@
         <v>1.0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H53" s="3"/>
     </row>
@@ -8725,7 +8677,7 @@
         <v>1.0</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>7</v>
@@ -8737,7 +8689,7 @@
         <v>1.0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H54" s="2"/>
     </row>
@@ -8749,7 +8701,7 @@
         <v>1.0</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>7</v>
@@ -8761,7 +8713,7 @@
         <v>1.0</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H55" s="3"/>
     </row>
@@ -8773,10 +8725,10 @@
         <v>1.0</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56" s="1">
         <v>0.0</v>
@@ -8785,7 +8737,7 @@
         <v>1.0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H56" s="2"/>
     </row>
@@ -8798,7 +8750,7 @@
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57" s="1">
         <v>0.0</v>
@@ -8807,7 +8759,7 @@
         <v>1.0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H57" s="2"/>
     </row>
@@ -8820,7 +8772,7 @@
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58" s="1">
         <v>0.0</v>
@@ -8829,7 +8781,7 @@
         <v>1.0</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H58" s="3"/>
     </row>
@@ -8842,7 +8794,7 @@
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59" s="1">
         <v>0.0</v>
@@ -8851,7 +8803,7 @@
         <v>1.0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H59" s="3"/>
     </row>
@@ -8863,7 +8815,7 @@
         <v>1.0</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>7</v>
@@ -8875,7 +8827,7 @@
         <v>1.0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H60" s="3"/>
     </row>
@@ -8887,7 +8839,7 @@
         <v>1.0</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>7</v>
@@ -8899,7 +8851,7 @@
         <v>1.0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H61" s="3"/>
     </row>
@@ -8911,7 +8863,7 @@
         <v>1.0</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>7</v>
@@ -8923,7 +8875,7 @@
         <v>1.0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H62" s="3"/>
     </row>
@@ -8945,7 +8897,7 @@
         <v>2.0</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H63" s="3"/>
     </row>
@@ -8957,10 +8909,10 @@
         <v>2.0</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E64" s="1">
         <v>0.0</v>
@@ -8969,7 +8921,7 @@
         <v>2.0</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H64" s="3"/>
     </row>
@@ -8982,7 +8934,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E65" s="1">
         <v>0.0</v>
@@ -8991,7 +8943,7 @@
         <v>2.0</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H65" s="2"/>
     </row>
@@ -9004,7 +8956,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E66" s="1">
         <v>0.0</v>
@@ -9013,7 +8965,7 @@
         <v>2.0</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H66" s="3"/>
     </row>
@@ -9026,7 +8978,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67" s="1">
         <v>0.0</v>
@@ -9035,7 +8987,7 @@
         <v>2.0</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H67" s="3"/>
     </row>
@@ -9047,7 +8999,7 @@
         <v>2.0</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>7</v>
@@ -9059,7 +9011,7 @@
         <v>1.0</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H68" s="3"/>
     </row>
@@ -9071,7 +9023,7 @@
         <v>2.0</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>7</v>
@@ -9083,7 +9035,7 @@
         <v>1.0</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H69" s="3"/>
     </row>
@@ -9095,7 +9047,7 @@
         <v>2.0</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>7</v>
@@ -9107,7 +9059,7 @@
         <v>1.0</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="H70" s="11"/>
     </row>
@@ -9119,7 +9071,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>7</v>
@@ -9131,7 +9083,7 @@
         <v>3.0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H71" s="11"/>
     </row>
@@ -9143,7 +9095,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>7</v>
@@ -9155,7 +9107,7 @@
         <v>3.0</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="H72" s="11"/>
     </row>
@@ -9167,7 +9119,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>7</v>
@@ -9179,7 +9131,7 @@
         <v>3.0</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="H73" s="11"/>
     </row>
@@ -9191,7 +9143,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>7</v>
@@ -9203,7 +9155,7 @@
         <v>3.0</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="H74" s="11"/>
     </row>
@@ -9215,7 +9167,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>7</v>
@@ -9227,7 +9179,7 @@
         <v>3.0</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="H75" s="3"/>
     </row>
@@ -9239,10 +9191,10 @@
         <v>1.0</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E76" s="1">
         <v>0.0</v>
@@ -9251,7 +9203,7 @@
         <v>1.0</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="H76" s="3"/>
     </row>
@@ -9263,10 +9215,10 @@
         <v>1.0</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E77" s="1">
         <v>0.0</v>
@@ -9275,7 +9227,7 @@
         <v>1.0</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="H77" s="3"/>
     </row>
@@ -9287,10 +9239,10 @@
         <v>1.0</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E78" s="8">
         <v>0.0</v>
@@ -9299,7 +9251,7 @@
         <v>1.0</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="H78" s="11"/>
     </row>
@@ -9311,10 +9263,10 @@
         <v>1.0</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E79" s="12">
         <v>0.0</v>
@@ -9323,7 +9275,7 @@
         <v>1.0</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="H79" s="3"/>
     </row>
@@ -9335,10 +9287,10 @@
         <v>2.0</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E80" s="1">
         <v>0.0</v>
@@ -9347,7 +9299,7 @@
         <v>1.0</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="H80" s="3"/>
     </row>
@@ -9359,10 +9311,10 @@
         <v>2.0</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E81" s="1">
         <v>0.0</v>
@@ -9371,7 +9323,7 @@
         <v>1.0</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="H81" s="3"/>
     </row>
@@ -9383,10 +9335,10 @@
         <v>2.0</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E82" s="1">
         <v>0.0</v>
@@ -9395,7 +9347,7 @@
         <v>1.0</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="H82" s="3"/>
     </row>
@@ -9407,7 +9359,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>7</v>
@@ -9419,7 +9371,7 @@
         <v>1.0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="H83" s="3"/>
     </row>
@@ -9431,7 +9383,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>7</v>
@@ -9443,7 +9395,7 @@
         <v>1.0</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="H84" s="3"/>
     </row>
@@ -9465,7 +9417,7 @@
         <v>1.0</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="H85" s="3"/>
     </row>
@@ -9477,10 +9429,10 @@
         <v>0.0</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E86" s="1">
         <v>0.0</v>
@@ -9489,7 +9441,7 @@
         <v>1.0</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="H86" s="3"/>
     </row>
@@ -9502,7 +9454,7 @@
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E87" s="1">
         <v>0.0</v>
@@ -9511,7 +9463,7 @@
         <v>1.0</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="H87" s="3"/>
     </row>
@@ -9524,7 +9476,7 @@
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E88" s="1">
         <v>0.0</v>
@@ -9533,7 +9485,7 @@
         <v>1.0</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="H88" s="3"/>
     </row>
@@ -9545,7 +9497,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>7</v>
@@ -9557,7 +9509,7 @@
         <v>1.0</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="H89" s="3"/>
     </row>
@@ -9569,10 +9521,10 @@
         <v>0.0</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E90" s="1">
         <v>0.0</v>
@@ -9581,7 +9533,7 @@
         <v>1.0</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="H90" s="3"/>
     </row>
@@ -9593,10 +9545,10 @@
         <v>0.0</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E91" s="1">
         <v>0.0</v>
@@ -9605,7 +9557,7 @@
         <v>1.0</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="H91" s="3"/>
     </row>
@@ -9617,10 +9569,10 @@
         <v>0.0</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E92" s="1">
         <v>0.0</v>
@@ -9629,7 +9581,7 @@
         <v>1.0</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="H92" s="13"/>
     </row>
@@ -9641,10 +9593,10 @@
         <v>0.0</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E93" s="8">
         <v>0.0</v>
@@ -9653,7 +9605,7 @@
         <v>1.0</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H93" s="13"/>
     </row>
@@ -9666,7 +9618,7 @@
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E94" s="8">
         <v>0.0</v>
@@ -9675,7 +9627,7 @@
         <v>1.0</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H94" s="3"/>
     </row>
@@ -9688,7 +9640,7 @@
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E95" s="12">
         <v>0.0</v>
@@ -9697,7 +9649,7 @@
         <v>1.0</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H95" s="3"/>
     </row>
@@ -9709,7 +9661,7 @@
         <v>3.0</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>7</v>
@@ -9721,7 +9673,7 @@
         <v>1.0</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="H96" s="3"/>
     </row>
@@ -9733,10 +9685,10 @@
         <v>3.0</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E97" s="12">
         <v>0.0</v>
@@ -9745,7 +9697,7 @@
         <v>1.0</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="H97" s="13"/>
     </row>
@@ -9758,7 +9710,7 @@
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="16" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E98" s="12">
         <v>0.0</v>
@@ -9767,7 +9719,7 @@
         <v>1.0</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H98" s="3"/>
     </row>
@@ -9780,7 +9732,7 @@
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E99" s="12">
         <v>0.0</v>
@@ -9789,7 +9741,7 @@
         <v>1.0</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H99" s="3"/>
     </row>

--- a/기획서/대사집(편집).xlsx
+++ b/기획서/대사집(편집).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="144">
   <si>
     <t>location</t>
   </si>
@@ -53,6 +53,9 @@
     <t>교수님, 안녕하세요!</t>
   </si>
   <si>
+    <t>다음 일</t>
+  </si>
+  <si>
     <t>Question</t>
   </si>
   <si>
@@ -65,10 +68,19 @@
     <t>교수님, 수업이 너무 졸려요!</t>
   </si>
   <si>
+    <t>의심도 증가</t>
+  </si>
+  <si>
     <t>왜 푸린인데 안경을 쓰고 계신거죠?</t>
   </si>
   <si>
+    <t>턴 종료.</t>
+  </si>
+  <si>
     <t>교수님 랩실에 티요가 있을까요?</t>
+  </si>
+  <si>
+    <t>교수님의 마음 획득</t>
   </si>
   <si>
     <t>...학생 이름이 뭐였죠.</t>
@@ -81,9 +93,6 @@
   </si>
   <si>
     <t>(오늘도 또 조교님이 대신 오신 것 같다.)</t>
-  </si>
-  <si>
-    <t>다음 일</t>
   </si>
   <si>
     <t>이조교</t>
@@ -107,19 +116,10 @@
     <t>그런 거 없습니다.</t>
   </si>
   <si>
-    <t>의심도 증가</t>
-  </si>
-  <si>
     <t>...교수님이 출장 가신 걸 제가 어떻게 하죠?</t>
   </si>
   <si>
-    <t>턴 종료.</t>
-  </si>
-  <si>
     <t>그럴까요?</t>
-  </si>
-  <si>
-    <t>교수님의 마음 획득</t>
   </si>
   <si>
     <t>(분명 집중해서 들었는데 무슨 소리인지 1도 모르겠다.)</t>
@@ -173,6 +173,9 @@
     <t>(3만원짜리 복분자 주스를 내밀며)교수님, 이번 졸업논문 안 낼 방법이 있나요?</t>
   </si>
   <si>
+    <t>김영란법으로 잡혀간다.</t>
+  </si>
+  <si>
     <t>(커피를 내밀며) 교수님, 이번 졸업논문 안 낼 방법이 있나요?</t>
   </si>
   <si>
@@ -206,10 +209,10 @@
     <t>죽어주ㅅ…</t>
   </si>
   <si>
-    <t>알았습니다. 조교님한테 가볼게요.</t>
+    <t>경찰 엔딩.</t>
   </si>
   <si>
-    <t>김영란법으로 잡혀간다.</t>
+    <t>알았습니다. 조교님한테 가볼게요.</t>
   </si>
   <si>
     <t>네, 안녕히 계세요.</t>
@@ -219,6 +222,9 @@
   </si>
   <si>
     <t>(눈밑에 다크서클이 짙다. 어제도 밤새서 게임했나보다.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">김후배 선택시 </t>
   </si>
   <si>
     <t>김후배</t>
@@ -239,13 +245,13 @@
     <t>무슨 일이야?</t>
   </si>
   <si>
-    <t>경찰 엔딩.</t>
+    <t>예라고 대답한 경우</t>
   </si>
   <si>
     <t>뭘 보십니까?</t>
   </si>
   <si>
-    <t xml:space="preserve">김후배 선택시 </t>
+    <t>대화 종료</t>
   </si>
   <si>
     <t>선배님, 저에게 유기화학 레포트 좀 주실 수 없으십니까?</t>
@@ -254,16 +260,16 @@
     <t>...고양이 잠시 데리고 있게 해주면.</t>
   </si>
   <si>
+    <t>성서를 얻을 수 있다.</t>
+  </si>
+  <si>
     <t>이번주 주말에 너랑 여행갔다온 걸로 해준다면 줄 수도 있는데.</t>
   </si>
   <si>
-    <t>예라고 대답한 경우</t>
+    <t>알리바이 생성</t>
   </si>
   <si>
     <t>그러게 왜 어제 밤새서 게임했어.</t>
-  </si>
-  <si>
-    <t>대화 종료</t>
   </si>
   <si>
     <t>…뭐, 선배정도면 믿을 수 있으니까요.</t>
@@ -275,13 +281,7 @@
     <t>헐... 게임은 제 인생의 전부인데요.</t>
   </si>
   <si>
-    <t>성서를 얻을 수 있다.</t>
-  </si>
-  <si>
     <t>(오늘도 역시 과제에 깔려 죽어가고 있다.)</t>
-  </si>
-  <si>
-    <t>알리바이 생성</t>
   </si>
   <si>
     <t>A씨</t>
@@ -296,16 +296,16 @@
     <t>너가 뭐좀 해주면.</t>
   </si>
   <si>
+    <t>알리바이 생성.</t>
+  </si>
+  <si>
     <t>잘있어라.</t>
   </si>
   <si>
-    <t>알리바이 생성.</t>
+    <t>구겨진 0점 시험지 획득 가능.</t>
   </si>
   <si>
     <t>나쁜 자식...</t>
-  </si>
-  <si>
-    <t>구겨진 0점 시험지 획득 가능.</t>
   </si>
   <si>
     <t>뭐든 해줄게…</t>
@@ -413,13 +413,19 @@
     <t>아, 이건 좀 팔리더라. 이 정도면 되지?</t>
   </si>
   <si>
-    <t>그러고보니 너 요즘 폭탄재료 모으고 다닌다며? 어때, 이것도 써볼래? (____\)</t>
+    <t>그러고보니 너 요즘 폭탄재료 모으고 다닌다며? 어때, 이것도 써볼래? 가격은 10만원.</t>
   </si>
   <si>
     <t>(미정) 일정 레포트이상 판매시 우라늄 구매가능</t>
   </si>
   <si>
     <t>금액은 아직 미정</t>
+  </si>
+  <si>
+    <t>자, 이거 받아. 위험한 거니까 조심히 다뤄야해?</t>
+  </si>
+  <si>
+    <t>싫음 말고.</t>
   </si>
   <si>
     <t>자판기</t>
@@ -445,15 +451,6 @@
     </r>
   </si>
   <si>
-    <t>데자와 획득</t>
-  </si>
-  <si>
-    <t>이 과목은 얼마 안 돼.</t>
-  </si>
-  <si>
-    <t>와 이건 진짜 구하기 힘든 건데! 더 얹어서 줄게.</t>
-  </si>
-  <si>
     <r>
       <rPr/>
       <t>A</t>
@@ -466,6 +463,9 @@
       </rPr>
       <t>nswer</t>
     </r>
+  </si>
+  <si>
+    <t>데자와 획득</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -569,6 +569,12 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -626,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -710,7 +716,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1">
         <v>1.0</v>
@@ -719,7 +725,7 @@
         <v>1.0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -732,7 +738,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1">
         <v>1.0</v>
@@ -741,10 +747,10 @@
         <v>1.0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -756,7 +762,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1">
         <v>1.0</v>
@@ -765,10 +771,10 @@
         <v>1.0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -780,7 +786,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1">
         <v>1.0</v>
@@ -789,10 +795,10 @@
         <v>1.0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -815,7 +821,7 @@
         <v>1.0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -839,7 +845,7 @@
         <v>1.0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -863,7 +869,7 @@
         <v>1.0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -885,7 +891,7 @@
         <v>1.0</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -897,7 +903,7 @@
         <v>1.0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>7</v>
@@ -909,7 +915,7 @@
         <v>1.0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -924,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1">
         <v>2.0</v>
@@ -933,7 +939,7 @@
         <v>1.0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H14" s="3"/>
     </row>
@@ -946,7 +952,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" s="1">
         <v>2.0</v>
@@ -955,7 +961,7 @@
         <v>1.0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -968,7 +974,7 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1">
         <v>2.0</v>
@@ -977,10 +983,10 @@
         <v>1.0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -992,7 +998,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" s="1">
         <v>2.0</v>
@@ -1001,7 +1007,7 @@
         <v>1.0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H17" s="3"/>
     </row>
@@ -1013,7 +1019,7 @@
         <v>1.0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>7</v>
@@ -1025,7 +1031,7 @@
         <v>1.0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -1037,7 +1043,7 @@
         <v>1.0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>7</v>
@@ -1049,7 +1055,7 @@
         <v>1.0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -1061,7 +1067,7 @@
         <v>1.0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>7</v>
@@ -1073,7 +1079,7 @@
         <v>1.0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -1158,7 +1164,7 @@
         <v>37</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1">
         <v>3.0</v>
@@ -1180,7 +1186,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25" s="1">
         <v>3.0</v>
@@ -1192,7 +1198,7 @@
         <v>41</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="15.0" customHeight="1">
@@ -1204,7 +1210,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26" s="1">
         <v>3.0</v>
@@ -1216,7 +1222,7 @@
         <v>42</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="15.0" customHeight="1">
@@ -1228,7 +1234,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1">
         <v>3.0</v>
@@ -1240,7 +1246,7 @@
         <v>43</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="15.0" customHeight="1">
@@ -1396,7 +1402,7 @@
         <v>48</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E34" s="1">
         <v>4.0</v>
@@ -1420,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E35" s="1">
         <v>4.0</v>
@@ -1432,7 +1438,7 @@
         <v>52</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" ht="15.0" customHeight="1">
@@ -1444,7 +1450,7 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E36" s="1">
         <v>4.0</v>
@@ -1453,10 +1459,10 @@
         <v>1.0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="15.0" customHeight="1">
@@ -1468,7 +1474,7 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E37" s="1">
         <v>4.0</v>
@@ -1477,7 +1483,7 @@
         <v>1.0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H37" s="3"/>
     </row>
@@ -1501,7 +1507,7 @@
         <v>1.0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -1525,7 +1531,7 @@
         <v>1.0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -1549,7 +1555,7 @@
         <v>1.0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H40" s="3"/>
     </row>
@@ -1571,7 +1577,7 @@
         <v>1.0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H41" s="3"/>
     </row>
@@ -1595,7 +1601,7 @@
         <v>1.0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H42" s="3"/>
     </row>
@@ -1607,7 +1613,7 @@
         <v>4.0</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>7</v>
@@ -1619,7 +1625,7 @@
         <v>1.0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H43" s="3"/>
     </row>
@@ -1634,7 +1640,7 @@
         <v>11</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E44" s="1">
         <v>5.0</v>
@@ -1643,7 +1649,7 @@
         <v>1.0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H44" s="3"/>
     </row>
@@ -1656,7 +1662,7 @@
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E45" s="1">
         <v>5.0</v>
@@ -1665,10 +1671,10 @@
         <v>1.0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" ht="15.0" customHeight="1">
@@ -1680,7 +1686,7 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E46" s="1">
         <v>5.0</v>
@@ -1689,10 +1695,10 @@
         <v>1.0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -1704,7 +1710,7 @@
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E47" s="1">
         <v>5.0</v>
@@ -1713,7 +1719,7 @@
         <v>1.0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H47" s="3"/>
     </row>
@@ -1735,7 +1741,7 @@
         <v>1.0</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H48" s="3"/>
     </row>
@@ -1757,10 +1763,10 @@
         <v>1.0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" ht="15.0" customHeight="1">
@@ -1771,7 +1777,7 @@
         <v>1.0</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>7</v>
@@ -1783,7 +1789,7 @@
         <v>1.0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H50" s="3"/>
     </row>
@@ -1798,7 +1804,7 @@
         <v>11</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E51" s="1">
         <v>0.0</v>
@@ -1807,7 +1813,7 @@
         <v>1.0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H51" s="3"/>
     </row>
@@ -1820,7 +1826,7 @@
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E52" s="1">
         <v>0.0</v>
@@ -1829,7 +1835,7 @@
         <v>1.0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H52" s="3"/>
     </row>
@@ -1842,7 +1848,7 @@
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E53" s="1">
         <v>0.0</v>
@@ -1851,7 +1857,7 @@
         <v>1.0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H53" s="3"/>
     </row>
@@ -1875,10 +1881,10 @@
         <v>1.0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" ht="15.0" customHeight="1">
@@ -1889,7 +1895,7 @@
         <v>1.0</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>7</v>
@@ -1901,10 +1907,10 @@
         <v>1.0</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" ht="15.0" customHeight="1">
@@ -1915,10 +1921,10 @@
         <v>1.0</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E56" s="1">
         <v>0.0</v>
@@ -1927,7 +1933,7 @@
         <v>1.0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H56" s="3"/>
     </row>
@@ -1940,7 +1946,7 @@
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E57" s="1">
         <v>0.0</v>
@@ -1949,10 +1955,10 @@
         <v>1.0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" ht="15.0" customHeight="1">
@@ -1964,7 +1970,7 @@
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E58" s="1">
         <v>0.0</v>
@@ -1973,10 +1979,10 @@
         <v>1.0</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" ht="15.0" customHeight="1">
@@ -1988,7 +1994,7 @@
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E59" s="1">
         <v>0.0</v>
@@ -1997,7 +2003,7 @@
         <v>1.0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H59" s="3"/>
     </row>
@@ -2009,7 +2015,7 @@
         <v>1.0</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>7</v>
@@ -2021,7 +2027,7 @@
         <v>1.0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H60" s="3"/>
     </row>
@@ -2033,7 +2039,7 @@
         <v>1.0</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>7</v>
@@ -2045,7 +2051,7 @@
         <v>1.0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H61" s="3"/>
     </row>
@@ -2057,7 +2063,7 @@
         <v>1.0</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>7</v>
@@ -2069,7 +2075,7 @@
         <v>1.0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H62" s="3"/>
     </row>
@@ -2091,7 +2097,7 @@
         <v>2.0</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H63" s="3"/>
     </row>
@@ -2106,7 +2112,7 @@
         <v>90</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E64" s="1">
         <v>0.0</v>
@@ -2128,7 +2134,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E65" s="1">
         <v>0.0</v>
@@ -2150,7 +2156,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E66" s="1">
         <v>0.0</v>
@@ -2162,7 +2168,7 @@
         <v>93</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" ht="15.0" customHeight="1">
@@ -2174,7 +2180,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E67" s="1">
         <v>0.0</v>
@@ -2183,10 +2189,10 @@
         <v>2.0</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" ht="15.0" customHeight="1">
@@ -2209,7 +2215,7 @@
         <v>1.0</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H68" s="3"/>
     </row>
@@ -2644,7 +2650,7 @@
         <v>127</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E86" s="1">
         <v>0.0</v>
@@ -2666,7 +2672,7 @@
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E87" s="1">
         <v>0.0</v>
@@ -2688,7 +2694,7 @@
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E88" s="1">
         <v>0.0</v>
@@ -2754,13 +2760,13 @@
         <v>4.0</v>
       </c>
       <c r="B91" s="12">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E91" s="8">
         <v>0.0</v>
@@ -2768,7 +2774,7 @@
       <c r="F91" s="12">
         <v>1.0</v>
       </c>
-      <c r="G91" s="13" t="s">
+      <c r="G91" s="14" t="s">
         <v>133</v>
       </c>
       <c r="H91" s="13" t="s">
@@ -2780,11 +2786,11 @@
         <v>4.0</v>
       </c>
       <c r="B92" s="12">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E92" s="8">
         <v>0.0</v>
@@ -2793,7 +2799,7 @@
         <v>1.0</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H92" s="13" t="s">
         <v>135</v>
@@ -2804,11 +2810,11 @@
         <v>4.0</v>
       </c>
       <c r="B93" s="12">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E93" s="12">
         <v>0.0</v>
@@ -2817,46 +2823,46 @@
         <v>1.0</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H93" s="3"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="12">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B94" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="C94" s="3" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="F94" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="G94" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F94" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="G94" s="15" t="s">
-        <v>137</v>
       </c>
       <c r="H94" s="3"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="12">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B95" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>136</v>
+        <v>1.0</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E95" s="12">
         <v>0.0</v>
@@ -2864,8 +2870,8 @@
       <c r="F95" s="12">
         <v>1.0</v>
       </c>
-      <c r="G95" s="13" t="s">
-        <v>138</v>
+      <c r="G95" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="H95" s="3"/>
     </row>
@@ -2876,22 +2882,22 @@
       <c r="B96" s="12">
         <v>3.0</v>
       </c>
-      <c r="C96" s="3"/>
+      <c r="C96" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D96" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="F96" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="G96" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="E96" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F96" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>140</v>
-      </c>
+      <c r="H96" s="3"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="12">
@@ -2900,9 +2906,11 @@
       <c r="B97" s="12">
         <v>3.0</v>
       </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="16" t="s">
-        <v>15</v>
+      <c r="C97" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E97" s="12">
         <v>0.0</v>
@@ -2911,18 +2919,54 @@
         <v>1.0</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="H97" s="3"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="B98" s="12">
+        <v>3.0</v>
+      </c>
       <c r="C98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
+      <c r="D98" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E98" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="F98" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="B99" s="12">
+        <v>3.0</v>
+      </c>
       <c r="C99" s="3"/>
-      <c r="G99" s="3"/>
+      <c r="D99" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="F99" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="H99" s="3"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
@@ -7424,6 +7468,16 @@
       <c r="C999" s="3"/>
       <c r="G999" s="3"/>
       <c r="H999" s="3"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="C1000" s="3"/>
+      <c r="G1000" s="3"/>
+      <c r="H1000" s="3"/>
+    </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="C1001" s="3"/>
+      <c r="G1001" s="3"/>
+      <c r="H1001" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -7548,7 +7602,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1">
         <v>1.0</v>
@@ -7557,7 +7611,7 @@
         <v>1.0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -7570,7 +7624,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1">
         <v>1.0</v>
@@ -7579,7 +7633,7 @@
         <v>1.0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -7592,7 +7646,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1">
         <v>1.0</v>
@@ -7601,7 +7655,7 @@
         <v>1.0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -7614,7 +7668,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1">
         <v>1.0</v>
@@ -7623,7 +7677,7 @@
         <v>1.0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -7647,7 +7701,7 @@
         <v>1.0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -7671,7 +7725,7 @@
         <v>1.0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -7695,7 +7749,7 @@
         <v>1.0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -7717,7 +7771,7 @@
         <v>1.0</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -7729,7 +7783,7 @@
         <v>1.0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>7</v>
@@ -7741,7 +7795,7 @@
         <v>1.0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -7756,7 +7810,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1">
         <v>2.0</v>
@@ -7765,7 +7819,7 @@
         <v>1.0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H14" s="3"/>
     </row>
@@ -7778,7 +7832,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" s="1">
         <v>2.0</v>
@@ -7787,7 +7841,7 @@
         <v>1.0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -7800,7 +7854,7 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1">
         <v>2.0</v>
@@ -7809,7 +7863,7 @@
         <v>1.0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -7822,7 +7876,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" s="1">
         <v>2.0</v>
@@ -7831,7 +7885,7 @@
         <v>1.0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H17" s="3"/>
     </row>
@@ -7843,7 +7897,7 @@
         <v>1.0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>7</v>
@@ -7855,7 +7909,7 @@
         <v>1.0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -7867,7 +7921,7 @@
         <v>1.0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>7</v>
@@ -7879,7 +7933,7 @@
         <v>1.0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -7891,7 +7945,7 @@
         <v>1.0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>7</v>
@@ -7903,7 +7957,7 @@
         <v>1.0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -7988,7 +8042,7 @@
         <v>37</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1">
         <v>3.0</v>
@@ -8010,7 +8064,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25" s="1">
         <v>3.0</v>
@@ -8032,7 +8086,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26" s="1">
         <v>3.0</v>
@@ -8054,7 +8108,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1">
         <v>3.0</v>
@@ -8220,7 +8274,7 @@
         <v>48</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E34" s="1">
         <v>4.0</v>
@@ -8244,7 +8298,7 @@
         <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E35" s="1">
         <v>4.0</v>
@@ -8266,7 +8320,7 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E36" s="1">
         <v>4.0</v>
@@ -8275,7 +8329,7 @@
         <v>1.0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -8288,7 +8342,7 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E37" s="1">
         <v>4.0</v>
@@ -8297,7 +8351,7 @@
         <v>1.0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H37" s="3"/>
     </row>
@@ -8321,7 +8375,7 @@
         <v>1.0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -8345,7 +8399,7 @@
         <v>1.0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -8369,7 +8423,7 @@
         <v>1.0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H40" s="3"/>
     </row>
@@ -8391,7 +8445,7 @@
         <v>1.0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H41" s="3"/>
     </row>
@@ -8415,7 +8469,7 @@
         <v>1.0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H42" s="3"/>
     </row>
@@ -8427,7 +8481,7 @@
         <v>4.0</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>7</v>
@@ -8439,7 +8493,7 @@
         <v>1.0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H43" s="3"/>
     </row>
@@ -8454,7 +8508,7 @@
         <v>11</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E44" s="1">
         <v>5.0</v>
@@ -8463,7 +8517,7 @@
         <v>1.0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H44" s="3"/>
     </row>
@@ -8476,7 +8530,7 @@
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E45" s="1">
         <v>5.0</v>
@@ -8485,7 +8539,7 @@
         <v>1.0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -8498,7 +8552,7 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E46" s="1">
         <v>5.0</v>
@@ -8507,7 +8561,7 @@
         <v>1.0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -8520,7 +8574,7 @@
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E47" s="1">
         <v>5.0</v>
@@ -8529,7 +8583,7 @@
         <v>1.0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H47" s="3"/>
     </row>
@@ -8551,7 +8605,7 @@
         <v>1.0</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H48" s="3"/>
     </row>
@@ -8573,7 +8627,7 @@
         <v>1.0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -8585,7 +8639,7 @@
         <v>1.0</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>7</v>
@@ -8597,7 +8651,7 @@
         <v>1.0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H50" s="3"/>
     </row>
@@ -8612,7 +8666,7 @@
         <v>11</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E51" s="1">
         <v>0.0</v>
@@ -8621,7 +8675,7 @@
         <v>1.0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H51" s="3"/>
     </row>
@@ -8634,7 +8688,7 @@
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E52" s="1">
         <v>0.0</v>
@@ -8643,7 +8697,7 @@
         <v>1.0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H52" s="3"/>
     </row>
@@ -8656,7 +8710,7 @@
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E53" s="1">
         <v>0.0</v>
@@ -8665,7 +8719,7 @@
         <v>1.0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H53" s="3"/>
     </row>
@@ -8689,7 +8743,7 @@
         <v>1.0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H54" s="2"/>
     </row>
@@ -8701,7 +8755,7 @@
         <v>1.0</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>7</v>
@@ -8713,7 +8767,7 @@
         <v>1.0</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H55" s="3"/>
     </row>
@@ -8725,10 +8779,10 @@
         <v>1.0</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E56" s="1">
         <v>0.0</v>
@@ -8737,7 +8791,7 @@
         <v>1.0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H56" s="2"/>
     </row>
@@ -8750,7 +8804,7 @@
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E57" s="1">
         <v>0.0</v>
@@ -8759,7 +8813,7 @@
         <v>1.0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H57" s="2"/>
     </row>
@@ -8772,7 +8826,7 @@
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E58" s="1">
         <v>0.0</v>
@@ -8781,7 +8835,7 @@
         <v>1.0</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H58" s="3"/>
     </row>
@@ -8794,7 +8848,7 @@
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E59" s="1">
         <v>0.0</v>
@@ -8803,7 +8857,7 @@
         <v>1.0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H59" s="3"/>
     </row>
@@ -8815,7 +8869,7 @@
         <v>1.0</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>7</v>
@@ -8827,7 +8881,7 @@
         <v>1.0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H60" s="3"/>
     </row>
@@ -8839,7 +8893,7 @@
         <v>1.0</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>7</v>
@@ -8851,7 +8905,7 @@
         <v>1.0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H61" s="3"/>
     </row>
@@ -8863,7 +8917,7 @@
         <v>1.0</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>7</v>
@@ -8875,7 +8929,7 @@
         <v>1.0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H62" s="3"/>
     </row>
@@ -8897,7 +8951,7 @@
         <v>2.0</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H63" s="3"/>
     </row>
@@ -8912,7 +8966,7 @@
         <v>90</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E64" s="1">
         <v>0.0</v>
@@ -8934,7 +8988,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E65" s="1">
         <v>0.0</v>
@@ -8956,7 +9010,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E66" s="1">
         <v>0.0</v>
@@ -8978,7 +9032,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E67" s="1">
         <v>0.0</v>
@@ -8987,7 +9041,7 @@
         <v>2.0</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H67" s="3"/>
     </row>
@@ -9011,7 +9065,7 @@
         <v>1.0</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H68" s="3"/>
     </row>
@@ -9432,7 +9486,7 @@
         <v>127</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E86" s="1">
         <v>0.0</v>
@@ -9454,7 +9508,7 @@
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E87" s="1">
         <v>0.0</v>
@@ -9476,7 +9530,7 @@
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E88" s="1">
         <v>0.0</v>
@@ -9523,8 +9577,8 @@
       <c r="C90" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>112</v>
+      <c r="D90" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="E90" s="1">
         <v>0.0</v>
@@ -9533,55 +9587,53 @@
         <v>1.0</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H90" s="3"/>
     </row>
     <row r="91" ht="15.0" customHeight="1">
-      <c r="A91" s="1">
+      <c r="A91" s="12">
         <v>4.0</v>
       </c>
-      <c r="B91" s="1">
-        <v>0.0</v>
+      <c r="B91" s="12">
+        <v>1.0</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E91" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F91" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>132</v>
+      <c r="D91" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F91" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="H91" s="3"/>
     </row>
     <row r="92" ht="15.0" customHeight="1">
-      <c r="A92" s="1">
+      <c r="A92" s="12">
         <v>4.0</v>
       </c>
-      <c r="B92" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E92" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F92" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>142</v>
+      <c r="B92" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F92" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="H92" s="13"/>
     </row>
@@ -9590,22 +9642,20 @@
         <v>4.0</v>
       </c>
       <c r="B93" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="12">
         <v>0.0</v>
       </c>
       <c r="F93" s="12">
         <v>1.0</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="H93" s="13"/>
     </row>
@@ -9614,20 +9664,22 @@
         <v>4.0</v>
       </c>
       <c r="B94" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="C94" s="3"/>
+        <v>1.0</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="D94" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94" s="8">
+        <v>7</v>
+      </c>
+      <c r="E94" s="12">
         <v>0.0</v>
       </c>
       <c r="F94" s="12">
         <v>1.0</v>
       </c>
-      <c r="G94" s="13" t="s">
-        <v>72</v>
+      <c r="G94" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="H94" s="3"/>
     </row>
@@ -9636,11 +9688,13 @@
         <v>4.0</v>
       </c>
       <c r="B95" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="C95" s="3"/>
+        <v>1.0</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="D95" s="12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E95" s="12">
         <v>0.0</v>
@@ -9648,8 +9702,8 @@
       <c r="F95" s="12">
         <v>1.0</v>
       </c>
-      <c r="G95" s="13" t="s">
-        <v>73</v>
+      <c r="G95" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="H95" s="3"/>
     </row>
@@ -9661,9 +9715,9 @@
         <v>3.0</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D96" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E96" s="12">
@@ -9672,8 +9726,8 @@
       <c r="F96" s="12">
         <v>1.0</v>
       </c>
-      <c r="G96" s="15" t="s">
-        <v>137</v>
+      <c r="G96" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="H96" s="3"/>
     </row>
@@ -9685,10 +9739,10 @@
         <v>3.0</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E97" s="12">
         <v>0.0</v>
@@ -9697,7 +9751,7 @@
         <v>1.0</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H97" s="13"/>
     </row>
@@ -9709,8 +9763,8 @@
         <v>3.0</v>
       </c>
       <c r="C98" s="3"/>
-      <c r="D98" s="16" t="s">
-        <v>143</v>
+      <c r="D98" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="E98" s="12">
         <v>0.0</v>
@@ -9719,7 +9773,7 @@
         <v>1.0</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H98" s="3"/>
     </row>
@@ -9731,8 +9785,8 @@
         <v>3.0</v>
       </c>
       <c r="C99" s="3"/>
-      <c r="D99" s="16" t="s">
-        <v>15</v>
+      <c r="D99" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="E99" s="12">
         <v>0.0</v>
@@ -9741,7 +9795,7 @@
         <v>1.0</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H99" s="3"/>
     </row>
